--- a/docs/shr-core-RadiationProcedure.xlsx
+++ b/docs/shr-core-RadiationProcedure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="363">
   <si>
     <t>Path</t>
   </si>
@@ -426,6 +426,17 @@
     <t>The point in time when the statement was created.</t>
   </si>
   <si>
+    <t>reasoncode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonCode-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The justification, as a code.
+Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept, so we are not going to support a string.</t>
+  </si>
+  <si>
     <t>reasonreference</t>
   </si>
   <si>
@@ -536,6 +547,35 @@
     <t>The total amount of radiation dose delivered for the course of therapy. (source: SNOMED, ASTRO)</t>
   </si>
   <si>
+    <t>terminationreason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TerminationReason-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A code explaining unplanned or premature termination of a plan of treatment, course of medication, or research study.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TerminationReason-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Procedure.extension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/TreatmentTerminationReasonVS</t>
+  </si>
+  <si>
     <t>Procedure.modifierExtension</t>
   </si>
   <si>
@@ -607,10 +647,6 @@
     <t>Procedure.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>Classification of the procedure</t>
   </si>
   <si>
@@ -700,7 +736,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodySiteVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -715,64 +751,24 @@
     <t>Procedure.bodySite.extension</t>
   </si>
   <si>
-    <t>laterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t>locationqualifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LocationQualifier-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Anatomical location or specimen further detailing the side(s) of interest.</t>
-  </si>
-  <si>
-    <t>anatomicaldirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AnatomicalDirection-extension]]} {[]}
+    <t>Additional information, such as laterality or direction, that helps define the body location.</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Landmark-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Anatomical location or specimen further detailing directionality.</t>
-  </si>
-  <si>
-    <t>clockdirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ClockDirection-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A direction indicated by an angle relative to 12 o'clock.</t>
-  </si>
-  <si>
-    <t>commentordescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-CommentOrDescription-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A text note containing additional details, explanation, description, comment, or summarization.</t>
-  </si>
-  <si>
-    <t>attachment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Attachment-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A file that contains audio, video, image, or similar content.</t>
-  </si>
-  <si>
-    <t>distancefromlandmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DistanceFromLandmark-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>How far the anatomical location of interest is from the given landmark</t>
+    <t>An anatomical landmark that helps determine a body location.</t>
   </si>
   <si>
     <t>Procedure.bodySite.coding</t>
@@ -817,7 +813,11 @@
     <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
-    <t>Procedure.reasonCodeableConcept</t>
+    <t>Procedure.reason[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition]]}</t>
   </si>
   <si>
     <t>Reason procedure performed</t>
@@ -833,9 +833,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
-  </si>
-  <si>
-    <t>Procedure.reason[x]</t>
   </si>
   <si>
     <t>.reasonCode</t>
@@ -1301,7 +1298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM69"/>
+  <dimension ref="A1:AM71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1310,7 +1307,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.01171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.7265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.03125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1334,7 +1331,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.0" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.16796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -3173,7 +3170,7 @@
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
@@ -3279,7 +3276,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>39</v>
@@ -3372,9 +3369,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>39</v>
       </c>
@@ -3397,9 +3396,7 @@
       <c r="J20" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>59</v>
-      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
         <v>139</v>
       </c>
@@ -3425,7 +3422,7 @@
         <v>39</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
         <v>39</v>
@@ -3452,13 +3449,13 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
@@ -3467,7 +3464,7 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -3478,7 +3475,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3489,7 +3486,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>39</v>
@@ -3501,13 +3498,13 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3558,13 +3555,13 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -3573,7 +3570,7 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -3584,7 +3581,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3592,10 +3589,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>39</v>
@@ -3607,13 +3604,13 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3622,7 +3619,7 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>39</v>
@@ -3664,13 +3661,13 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>39</v>
@@ -3679,7 +3676,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3690,7 +3687,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3713,13 +3710,13 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3728,7 +3725,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>39</v>
@@ -3770,10 +3767,10 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>48</v>
@@ -3796,20 +3793,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>39</v>
@@ -3821,11 +3816,13 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3849,7 +3846,7 @@
         <v>39</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W24" t="s" s="2">
         <v>39</v>
@@ -3876,13 +3873,13 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>39</v>
@@ -3891,7 +3888,7 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
@@ -3915,7 +3912,7 @@
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>39</v>
@@ -4037,7 +4034,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4117,7 +4114,7 @@
         <v>123</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>39</v>
@@ -4139,11 +4136,11 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4220,40 +4217,38 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K28" t="s" s="2">
         <v>166</v>
       </c>
+      <c r="K28" s="2"/>
       <c r="L28" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>67</v>
-      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -4302,7 +4297,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4317,7 +4312,7 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>39</v>
@@ -4328,9 +4323,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>39</v>
       </c>
@@ -4348,21 +4345,17 @@
         <v>39</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="K29" s="2"/>
+      <c r="L29" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>172</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>39</v>
       </c>
@@ -4410,7 +4403,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4425,18 +4418,18 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>175</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4444,13 +4437,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>39</v>
@@ -4459,13 +4452,13 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4489,7 +4482,7 @@
         <v>39</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W30" t="s" s="2">
         <v>39</v>
@@ -4516,10 +4509,10 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>48</v>
@@ -4531,18 +4524,18 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>182</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4550,28 +4543,28 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4595,14 +4588,16 @@
         <v>39</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>39</v>
@@ -4620,13 +4615,13 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>39</v>
@@ -4646,7 +4641,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4654,7 +4649,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>48</v>
@@ -4666,16 +4661,16 @@
         <v>39</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4684,7 +4679,7 @@
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>39</v>
@@ -4699,16 +4694,16 @@
         <v>39</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>39</v>
@@ -4726,10 +4721,10 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>48</v>
@@ -4741,7 +4736,7 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
@@ -4750,9 +4745,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4766,7 +4761,7 @@
         <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>39</v>
@@ -4775,13 +4770,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4805,14 +4800,14 @@
         <v>39</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>105</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>39</v>
@@ -4830,10 +4825,10 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>48</v>
@@ -4845,29 +4840,29 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>39</v>
@@ -4879,18 +4874,20 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
@@ -4936,13 +4933,13 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
@@ -4951,7 +4948,7 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -4962,7 +4959,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4973,7 +4970,7 @@
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>39</v>
@@ -4982,19 +4979,21 @@
         <v>39</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
       </c>
@@ -5018,13 +5017,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
@@ -5042,7 +5041,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5051,24 +5050,24 @@
         <v>41</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>212</v>
+        <v>39</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>39</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5076,28 +5075,28 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5124,11 +5123,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y36" t="s" s="2">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>39</v>
@@ -5146,13 +5147,13 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
@@ -5161,18 +5162,18 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5180,28 +5181,28 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5225,16 +5226,14 @@
         <v>39</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>39</v>
@@ -5251,11 +5250,15 @@
       <c r="AD37" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE37" s="2"/>
+      <c r="AE37" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="AF37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG37" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH37" t="s" s="2">
         <v>39</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
@@ -5274,18 +5277,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>39</v>
@@ -5294,20 +5297,18 @@
         <v>39</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5329,35 +5330,41 @@
         <v>39</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AE38" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG38" s="2"/>
+      <c r="AG38" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH38" t="s" s="2">
         <v>39</v>
       </c>
@@ -5365,7 +5372,7 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
@@ -5374,25 +5381,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>39</v>
@@ -5401,11 +5406,13 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="K39" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="L39" t="s" s="2">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5429,16 +5436,14 @@
         <v>39</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>39</v>
@@ -5456,13 +5461,13 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>39</v>
@@ -5471,22 +5476,20 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>39</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5495,28 +5498,30 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="K40" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="L40" t="s" s="2">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>39</v>
+        <v>216</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
@@ -5535,7 +5540,7 @@
         <v>39</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
         <v>39</v>
@@ -5562,13 +5567,13 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>39</v>
@@ -5577,7 +5582,7 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5588,11 +5593,9 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>39</v>
       </c>
@@ -5601,7 +5604,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>39</v>
@@ -5613,11 +5616,13 @@
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="K41" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="L41" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5641,16 +5646,16 @@
         <v>39</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>39</v>
@@ -5668,7 +5673,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5677,13 +5682,13 @@
         <v>41</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
@@ -5694,11 +5699,9 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5716,14 +5719,16 @@
         <v>39</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="K42" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="L42" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5747,16 +5752,14 @@
         <v>39</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>39</v>
@@ -5774,7 +5777,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -5789,22 +5792,20 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>39</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5813,7 +5814,7 @@
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>39</v>
@@ -5825,11 +5826,13 @@
         <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="K43" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="L43" t="s" s="2">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5879,15 +5882,11 @@
       <c r="AD43" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE43" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="AE43" s="2"/>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG43" s="2"/>
       <c r="AH43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5895,7 +5894,7 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
@@ -5906,13 +5905,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5931,13 +5928,17 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="K44" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="L44" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>39</v>
@@ -5974,26 +5975,20 @@
         <v>39</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AE44" s="2"/>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG44" s="2"/>
       <c r="AH44" t="s" s="2">
         <v>39</v>
       </c>
@@ -6001,7 +5996,7 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
@@ -6012,9 +6007,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>39</v>
       </c>
@@ -6032,23 +6029,17 @@
         <v>39</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="K45" s="2"/>
       <c r="L45" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>39</v>
       </c>
@@ -6095,11 +6086,15 @@
       <c r="AD45" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE45" s="2"/>
+      <c r="AE45" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG45" s="2"/>
+      <c r="AG45" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
       </c>
@@ -6107,20 +6102,22 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>247</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="C46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6129,7 +6126,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>39</v>
@@ -6138,23 +6135,17 @@
         <v>39</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="K46" s="2"/>
       <c r="L46" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6201,11 +6192,15 @@
       <c r="AD46" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE46" s="2"/>
+      <c r="AE46" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG46" s="2"/>
+      <c r="AG46" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6213,18 +6208,18 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>254</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6235,7 +6230,7 @@
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>39</v>
@@ -6247,18 +6242,20 @@
         <v>49</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>39</v>
       </c>
@@ -6279,16 +6276,16 @@
         <v>39</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>39</v>
@@ -6305,15 +6302,11 @@
       <c r="AD47" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE47" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="AE47" s="2"/>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="AG47" s="2"/>
       <c r="AH47" t="s" s="2">
         <v>39</v>
       </c>
@@ -6321,18 +6314,18 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>39</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6343,7 +6336,7 @@
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>39</v>
@@ -6355,16 +6348,20 @@
         <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>39</v>
       </c>
@@ -6385,7 +6382,7 @@
         <v>39</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W48" t="s" s="2">
         <v>39</v>
@@ -6411,15 +6408,11 @@
       <c r="AD48" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE48" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="AE48" s="2"/>
       <c r="AF48" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG48" s="2"/>
       <c r="AH48" t="s" s="2">
         <v>39</v>
       </c>
@@ -6427,18 +6420,18 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>39</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6458,18 +6451,20 @@
         <v>39</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>59</v>
+        <v>256</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>39</v>
@@ -6494,13 +6489,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>39</v>
@@ -6518,7 +6513,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6533,7 +6528,7 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
@@ -6544,11 +6539,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6564,20 +6559,18 @@
         <v>39</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>64</v>
+        <v>263</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>39</v>
@@ -6626,7 +6619,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6641,7 +6634,7 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>266</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>39</v>
@@ -6652,40 +6645,38 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>39</v>
@@ -6734,13 +6725,13 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
@@ -6749,7 +6740,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
@@ -6760,18 +6751,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>39</v>
@@ -6780,18 +6771,20 @@
         <v>39</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>274</v>
+        <v>64</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>275</v>
+        <v>65</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>39</v>
@@ -6840,13 +6833,13 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
@@ -6855,49 +6848,51 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>277</v>
+        <v>61</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>278</v>
+        <v>39</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>279</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>281</v>
+        <v>178</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>39</v>
@@ -6922,13 +6917,13 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>283</v>
+        <v>39</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>284</v>
+        <v>39</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>39</v>
@@ -6946,13 +6941,13 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
@@ -6961,18 +6956,18 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>286</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6980,28 +6975,28 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7052,7 +7047,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7067,18 +7062,18 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7101,13 +7096,13 @@
         <v>49</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>295</v>
+        <v>173</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7134,13 +7129,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>39</v>
+        <v>283</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>39</v>
@@ -7158,7 +7153,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7173,18 +7168,18 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>299</v>
+        <v>39</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7192,33 +7187,31 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>39</v>
       </c>
@@ -7266,7 +7259,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7281,18 +7274,18 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>39</v>
+        <v>290</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>39</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7315,17 +7308,15 @@
         <v>49</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>188</v>
+        <v>294</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7350,13 +7341,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>311</v>
+        <v>39</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7374,7 +7365,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7389,18 +7380,18 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>39</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7411,7 +7402,7 @@
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>39</v>
@@ -7420,21 +7411,21 @@
         <v>39</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
       </c>
@@ -7482,13 +7473,13 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
@@ -7497,10 +7488,10 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>319</v>
+        <v>39</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>39</v>
+        <v>305</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>39</v>
@@ -7508,7 +7499,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7519,7 +7510,7 @@
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>39</v>
@@ -7528,19 +7519,19 @@
         <v>39</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7569,10 +7560,10 @@
         <v>94</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>39</v>
@@ -7590,13 +7581,13 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>39</v>
@@ -7605,7 +7596,7 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>39</v>
@@ -7616,7 +7607,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7639,15 +7630,17 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>188</v>
+        <v>314</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>39</v>
@@ -7672,13 +7665,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>330</v>
+        <v>39</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>331</v>
+        <v>39</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>39</v>
@@ -7696,7 +7689,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -7711,7 +7704,7 @@
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>39</v>
@@ -7722,7 +7715,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7733,7 +7726,7 @@
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>39</v>
@@ -7745,15 +7738,17 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>334</v>
+        <v>173</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>39</v>
@@ -7778,13 +7773,13 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>39</v>
+        <v>324</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>39</v>
@@ -7802,13 +7797,13 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>39</v>
@@ -7817,7 +7812,7 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>39</v>
+        <v>325</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>39</v>
@@ -7828,7 +7823,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7851,13 +7846,13 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7884,13 +7879,13 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>39</v>
+        <v>329</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>39</v>
+        <v>330</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>39</v>
@@ -7908,7 +7903,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -7923,18 +7918,18 @@
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>342</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7945,7 +7940,7 @@
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>39</v>
@@ -7957,13 +7952,13 @@
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8014,13 +8009,13 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>39</v>
@@ -8040,7 +8035,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8051,7 +8046,7 @@
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>39</v>
@@ -8063,13 +8058,13 @@
         <v>39</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>50</v>
+        <v>337</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>59</v>
+        <v>338</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>60</v>
+        <v>339</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8120,13 +8115,13 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>39</v>
@@ -8135,22 +8130,22 @@
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>39</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8169,17 +8164,15 @@
         <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>64</v>
+        <v>263</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>65</v>
+        <v>343</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>39</v>
@@ -8228,7 +8221,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8243,7 +8236,7 @@
         <v>39</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>39</v>
@@ -8254,40 +8247,38 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8336,13 +8327,13 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>39</v>
@@ -8351,7 +8342,7 @@
         <v>39</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>39</v>
@@ -8362,18 +8353,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>39</v>
@@ -8385,15 +8376,17 @@
         <v>39</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>350</v>
+        <v>65</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>39</v>
@@ -8418,13 +8411,13 @@
         <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>352</v>
+        <v>39</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>353</v>
+        <v>39</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>39</v>
@@ -8442,13 +8435,13 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>39</v>
@@ -8457,7 +8450,7 @@
         <v>39</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>39</v>
@@ -8468,38 +8461,40 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>355</v>
+        <v>64</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>356</v>
+        <v>178</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>39</v>
@@ -8548,13 +8543,13 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>39</v>
@@ -8563,7 +8558,7 @@
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>39</v>
@@ -8574,7 +8569,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8585,7 +8580,7 @@
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>39</v>
@@ -8597,20 +8592,16 @@
         <v>39</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>359</v>
+        <v>173</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>39</v>
       </c>
@@ -8634,13 +8625,13 @@
         <v>40</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>39</v>
+        <v>351</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>39</v>
+        <v>352</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>39</v>
@@ -8658,32 +8649,248 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J71" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AF69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG69" t="s" s="2">
+      <c r="K71" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG71" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AH69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AH71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL69">
+  <autoFilter ref="A1:AL71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8693,7 +8900,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
